--- a/InitData/Block_Shape.xlsx
+++ b/InitData/Block_Shape.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junni/Desktop/MRI project/tetris/InitData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB11A2-3941-C04E-88DD-6A5FA04F05DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002CC24-2816-874D-84A2-C12E7F2707FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="3180" windowWidth="27900" windowHeight="16940" xr2:uid="{DBC52A9B-AFD1-EB49-9F06-88B810FDBF24}"/>
+    <workbookView xWindow="63180" yWindow="4100" windowWidth="16940" windowHeight="19080" xr2:uid="{DBC52A9B-AFD1-EB49-9F06-88B810FDBF24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7935F6-9C7E-5D44-A3AE-E9BD9064B861}">
   <dimension ref="A1:A567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A357" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
